--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,35 +600,195 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>220</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>200</v>
+      </c>
+      <c r="N5" t="n">
         <v>4000</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O5" t="n">
         <v>4000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P5" t="n">
         <v>4000</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S5" t="n">
         <v>800</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T5" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44915</v>
+        <v>44911</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P2" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44915</v>
+        <v>44911</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44915</v>
+        <v>44911</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44915</v>
+        <v>44911</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44911</v>
+        <v>45251</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44911</v>
+        <v>45251</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44915</v>
+        <v>45251</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44915</v>
+        <v>44911</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
         <v>5000</v>
@@ -782,13 +782,253 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>1000</v>
       </c>
       <c r="T5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>200</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>800</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>150</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>200</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T8" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45251</v>
+        <v>44915</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45251</v>
+        <v>44915</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44911</v>
+        <v>45251</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44911</v>
+        <v>45251</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44915</v>
+        <v>44911</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44915</v>
+        <v>44911</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44915</v>
+        <v>45251</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44915</v>
+        <v>45251</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45251</v>
+        <v>44911</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45251</v>
+        <v>44911</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
